--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\stm32f103c_pcb\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388E2B2-E8E6-44FC-8E1F-DE52B0C235A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CED7B3-122C-4676-8413-9458D14C4D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9855" xr2:uid="{379CC426-69CF-4433-AC15-AC07ADA2F1E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9855" xr2:uid="{9115B80A-3B10-42C2-85A5-4F151F4C14F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB_Project" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">PCB_Project!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Line #</t>
   </si>
@@ -45,6 +45,27 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Lifecycle 1</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -132,10 +153,7 @@
     <t>20R,0603</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
+    <t>R6, R7</t>
   </si>
   <si>
     <t>1.5K,0603</t>
@@ -144,9 +162,21 @@
     <t>R8</t>
   </si>
   <si>
+    <t>1M,0603</t>
+  </si>
+  <si>
     <t>R9</t>
   </si>
   <si>
+    <t>500mA,1206</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
     <t>SW-PB_V</t>
   </si>
   <si>
@@ -187,21 +217,13 @@
   </si>
   <si>
     <t>Y2</t>
-  </si>
-  <si>
-    <t>20R,0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1M,0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,22 +236,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,23 +283,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,372 +612,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC66EB-A479-441C-9349-2D30B0AF4040}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC99D68-63FF-4223-88F2-04EDCB5A9199}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5"/>
-    <col min="2" max="2" width="18.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.5" style="5"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/BOM.xlsx
+++ b/Docs/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\stm32f103c_pcb\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CED7B3-122C-4676-8413-9458D14C4D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D6EEC4-A5B9-4AB0-B470-B421E7CFD031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9855" xr2:uid="{9115B80A-3B10-42C2-85A5-4F151F4C14F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9855" xr2:uid="{E7C1494C-7FA4-41C2-B12B-C65537D953A8}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Line #</t>
   </si>
@@ -162,7 +162,7 @@
     <t>R8</t>
   </si>
   <si>
-    <t>1M,0603</t>
+    <t>10M,0603</t>
   </si>
   <si>
     <t>R9</t>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC99D68-63FF-4223-88F2-04EDCB5A9199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD55B7D-8AF1-4E01-A15F-B9A86C4DA6CD}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -984,9 +984,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
